--- a/02_output/09_plant_health/phi_mean_total.xlsx
+++ b/02_output/09_plant_health/phi_mean_total.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Root health score</t>
   </si>
   <si>
-    <t xml:space="preserve">Specific Leaf Area (g/cm2)</t>
+    <t xml:space="preserve">SLA (g/cm2)</t>
   </si>
   <si>
     <t xml:space="preserve">Yield (dt/ha)</t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">phi_total</t>
   </si>
   <si>
-    <t xml:space="preserve">phi_total_without_yield</t>
+    <t xml:space="preserve">phi_total_no_yield</t>
   </si>
   <si>
     <t xml:space="preserve">1_1</t>
@@ -546,10 +546,10 @@
         <v>#NUM!</v>
       </c>
       <c r="I4" t="n">
-        <v>2.58778082264849</v>
+        <v>1.29389041132425</v>
       </c>
       <c r="J4" t="n">
-        <v>2.58778082264849</v>
+        <v>1.29389041132425</v>
       </c>
     </row>
     <row r="5">
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.43083322920571</v>
+        <v>1.35850618518056</v>
       </c>
       <c r="J11" t="n">
-        <v>1.43083322920571</v>
+        <v>1.35850618518056</v>
       </c>
     </row>
     <row r="12">

--- a/02_output/09_plant_health/phi_mean_total.xlsx
+++ b/02_output/09_plant_health/phi_mean_total.xlsx
@@ -502,7 +502,7 @@
         <v>0.616813833701251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.844025157232704</v>
+        <v>0.870440251572327</v>
       </c>
       <c r="F3" t="n">
         <v>0.666666666666667</v>
@@ -514,10 +514,10 @@
         <v>0.988630746416214</v>
       </c>
       <c r="I3" t="n">
-        <v>3.93651945836295</v>
+        <v>3.96293455270257</v>
       </c>
       <c r="J3" t="n">
-        <v>2.94788871194673</v>
+        <v>2.97430380628635</v>
       </c>
     </row>
     <row r="4">
